--- a/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -559,31 +559,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -675,14 +675,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMIGDALECTOMIA - PEDIATRICO</t>
+          <t>AMIGDALECTOMIA- PEDIATRICO</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -860,31 +860,31 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1121,14 +1121,14 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
         <v>7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>30</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
@@ -507,40 +507,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -562,28 +562,28 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -639,25 +639,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -722,40 +722,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -866,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1155,37 +1155,37 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>5</v>
       </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L17" t="n">
+        <v>16</v>
+      </c>
+      <c r="M17" t="n">
         <v>2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -746,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -872,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -562,13 +562,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1121,13 +1121,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1164,28 +1164,28 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
@@ -510,34 +510,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -725,34 +725,34 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1155,37 +1155,37 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
+++ b/Prestador/neotin/resultado/relatorio_neotin_COMPLETO.xlsx
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
